--- a/app-RRHH/file/utilidades_dist.xlsx
+++ b/app-RRHH/file/utilidades_dist.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="830">
   <si>
     <t xml:space="preserve">LISTADO PARA EL PAGO DE UTILIDADES ANTICIPADAS </t>
   </si>
@@ -39,9 +39,6 @@
     <t xml:space="preserve">Coeficiente de Utilidad a Distribuir</t>
   </si>
   <si>
-    <t xml:space="preserve">25248647.35</t>
-  </si>
-  <si>
     <t xml:space="preserve">No</t>
   </si>
   <si>
@@ -54,13 +51,13 @@
     <t xml:space="preserve">Nombre y Apellidos </t>
   </si>
   <si>
-    <t xml:space="preserve">JULIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGOSTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEPTIEMBRE</t>
+    <t xml:space="preserve">Abril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junio</t>
   </si>
   <si>
     <t xml:space="preserve">Salario Promedio del Trimestre</t>
@@ -86,15 +83,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junio</t>
   </si>
   <si>
     <t xml:space="preserve">Resultado Final del trimestre </t>
@@ -3372,7 +3360,7 @@
   <dimension ref="B1:U1271"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2890625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3449,8 +3437,8 @@
       <c r="F3" s="26"/>
       <c r="G3" s="27"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="29" t="s">
-        <v>4</v>
+      <c r="I3" s="29" t="n">
+        <v>25248647.35</v>
       </c>
       <c r="J3" s="29"/>
       <c r="K3" s="29" t="n">
@@ -3473,50 +3461,50 @@
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="D4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>7</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>8</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="34"/>
       <c r="K4" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="37" t="s">
         <v>12</v>
-      </c>
-      <c r="N4" s="37" t="s">
-        <v>13</v>
       </c>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="37"/>
       <c r="R4" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="39" t="s">
         <v>14</v>
-      </c>
-      <c r="S4" s="39" t="s">
-        <v>15</v>
       </c>
       <c r="T4" s="39" t="s">
         <v>3</v>
       </c>
       <c r="U4" s="40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3525,38 +3513,38 @@
       <c r="D5" s="31"/>
       <c r="E5" s="32"/>
       <c r="F5" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="H5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="43" t="s">
-        <v>19</v>
-      </c>
       <c r="I5" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="45" t="s">
-        <v>19</v>
-      </c>
       <c r="K5" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="45" t="s">
         <v>18</v>
-      </c>
-      <c r="L5" s="45" t="s">
-        <v>19</v>
       </c>
       <c r="M5" s="36"/>
       <c r="N5" s="46" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="O5" s="46" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="P5" s="46" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="46" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R5" s="38"/>
       <c r="S5" s="38"/>
@@ -3568,16 +3556,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G6" s="47" t="n">
         <v>194</v>
@@ -3633,16 +3621,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G7" s="47" t="n">
         <v>194</v>
@@ -3698,16 +3686,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G8" s="47" t="n">
         <v>0</v>
@@ -3763,16 +3751,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F9" s="48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>194</v>
@@ -3828,16 +3816,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G10" s="47" t="n">
         <v>194</v>
@@ -3893,16 +3881,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G11" s="47" t="n">
         <v>194</v>
@@ -3958,16 +3946,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G12" s="47" t="n">
         <v>194</v>
@@ -4023,16 +4011,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G13" s="47" t="n">
         <v>194</v>
@@ -4088,16 +4076,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G14" s="47" t="n">
         <v>0</v>
@@ -4153,16 +4141,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G15" s="47" t="n">
         <v>194</v>
@@ -4218,16 +4206,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G16" s="47" t="n">
         <v>194</v>
@@ -4283,16 +4271,16 @@
         <v>12</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G17" s="47" t="n">
         <v>194</v>
@@ -4348,16 +4336,16 @@
         <v>13</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G18" s="47" t="n">
         <v>0</v>
@@ -4413,16 +4401,16 @@
         <v>14</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G19" s="47" t="n">
         <v>0</v>
@@ -4478,16 +4466,16 @@
         <v>15</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G20" s="47" t="n">
         <v>176</v>
@@ -4543,16 +4531,16 @@
         <v>16</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G21" s="47" t="n">
         <v>0</v>
@@ -4608,16 +4596,16 @@
         <v>17</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E22" s="48" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G22" s="47" t="n">
         <v>150</v>
@@ -4673,16 +4661,16 @@
         <v>18</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G23" s="47" t="n">
         <v>194</v>
@@ -4738,16 +4726,16 @@
         <v>19</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G24" s="47" t="n">
         <v>194</v>
@@ -4803,16 +4791,16 @@
         <v>20</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G25" s="47" t="n">
         <v>0</v>
@@ -4868,16 +4856,16 @@
         <v>21</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G26" s="47" t="n">
         <v>194</v>
@@ -4933,16 +4921,16 @@
         <v>22</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G27" s="47" t="n">
         <v>194</v>
@@ -4998,16 +4986,16 @@
         <v>23</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G28" s="47" t="n">
         <v>0</v>
@@ -5063,16 +5051,16 @@
         <v>24</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G29" s="47" t="n">
         <v>194</v>
@@ -5128,16 +5116,16 @@
         <v>25</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G30" s="47" t="n">
         <v>194</v>
@@ -5193,16 +5181,16 @@
         <v>26</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E31" s="48" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F31" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G31" s="47" t="n">
         <v>194</v>
@@ -5258,16 +5246,16 @@
         <v>27</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E32" s="48" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F32" s="48" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G32" s="47" t="n">
         <v>194</v>
@@ -5323,16 +5311,16 @@
         <v>28</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E33" s="48" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F33" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G33" s="47" t="n">
         <v>0</v>
@@ -5388,16 +5376,16 @@
         <v>29</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E34" s="48" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F34" s="48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G34" s="47" t="n">
         <v>194</v>
@@ -5453,16 +5441,16 @@
         <v>30</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E35" s="48" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F35" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G35" s="47" t="n">
         <v>0</v>
@@ -5518,16 +5506,16 @@
         <v>31</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E36" s="48" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F36" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>194</v>
@@ -5583,16 +5571,16 @@
         <v>32</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E37" s="48" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F37" s="48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G37" s="47" t="n">
         <v>194</v>
@@ -5648,16 +5636,16 @@
         <v>33</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F38" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G38" s="47" t="n">
         <v>194</v>
@@ -5713,16 +5701,16 @@
         <v>34</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E39" s="48" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G39" s="47" t="n">
         <v>132</v>
@@ -5778,16 +5766,16 @@
         <v>35</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E40" s="48" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G40" s="47" t="n">
         <v>62</v>
@@ -5843,16 +5831,16 @@
         <v>36</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E41" s="48" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F41" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G41" s="47" t="n">
         <v>194</v>
@@ -5908,16 +5896,16 @@
         <v>37</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E42" s="48" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F42" s="48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G42" s="47" t="n">
         <v>194</v>
@@ -5973,16 +5961,16 @@
         <v>38</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E43" s="48" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F43" s="48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G43" s="47" t="n">
         <v>194</v>
@@ -6038,16 +6026,16 @@
         <v>39</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E44" s="48" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F44" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G44" s="47" t="n">
         <v>194</v>
@@ -6103,16 +6091,16 @@
         <v>40</v>
       </c>
       <c r="C45" s="48" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E45" s="48" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F45" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G45" s="47" t="n">
         <v>194</v>
@@ -6168,16 +6156,16 @@
         <v>41</v>
       </c>
       <c r="C46" s="48" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E46" s="48" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F46" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G46" s="47" t="n">
         <v>190.6</v>
@@ -6233,16 +6221,16 @@
         <v>42</v>
       </c>
       <c r="C47" s="48" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E47" s="48" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F47" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G47" s="47" t="n">
         <v>190</v>
@@ -6298,16 +6286,16 @@
         <v>43</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E48" s="48" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F48" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>194</v>
@@ -6363,16 +6351,16 @@
         <v>44</v>
       </c>
       <c r="C49" s="48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E49" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F49" s="48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G49" s="47" t="n">
         <v>97</v>
@@ -6428,16 +6416,16 @@
         <v>45</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F50" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G50" s="47" t="n">
         <v>191.25</v>
@@ -6493,16 +6481,16 @@
         <v>46</v>
       </c>
       <c r="C51" s="48" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F51" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G51" s="47" t="n">
         <v>191.25</v>
@@ -6558,16 +6546,16 @@
         <v>47</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F52" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G52" s="47" t="n">
         <v>0</v>
@@ -6623,16 +6611,16 @@
         <v>48</v>
       </c>
       <c r="C53" s="48" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F53" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G53" s="47" t="n">
         <v>96</v>
@@ -6688,16 +6676,16 @@
         <v>49</v>
       </c>
       <c r="C54" s="48" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E54" s="48" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F54" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G54" s="47" t="n">
         <v>190.6</v>
@@ -6753,16 +6741,16 @@
         <v>50</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D55" s="48" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E55" s="48" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F55" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G55" s="47" t="n">
         <v>190.6</v>
@@ -6818,16 +6806,16 @@
         <v>51</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D56" s="48" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E56" s="48" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F56" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>190.6</v>
@@ -6883,16 +6871,16 @@
         <v>52</v>
       </c>
       <c r="C57" s="48" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D57" s="48" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E57" s="48" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F57" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G57" s="47" t="n">
         <v>190.6</v>
@@ -6948,16 +6936,16 @@
         <v>53</v>
       </c>
       <c r="C58" s="48" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D58" s="48" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E58" s="48" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F58" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G58" s="47" t="n">
         <v>191.25</v>
@@ -7013,16 +7001,16 @@
         <v>54</v>
       </c>
       <c r="C59" s="48" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E59" s="48" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F59" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G59" s="47" t="n">
         <v>155</v>
@@ -7078,16 +7066,16 @@
         <v>55</v>
       </c>
       <c r="C60" s="48" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E60" s="48" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F60" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G60" s="47" t="n">
         <v>190.6</v>
@@ -7143,16 +7131,16 @@
         <v>56</v>
       </c>
       <c r="C61" s="48" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D61" s="48" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E61" s="48" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F61" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G61" s="47" t="n">
         <v>190.6</v>
@@ -7208,16 +7196,16 @@
         <v>57</v>
       </c>
       <c r="C62" s="48" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D62" s="48" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E62" s="48" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F62" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G62" s="47" t="n">
         <v>97</v>
@@ -7273,16 +7261,16 @@
         <v>58</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D63" s="48" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E63" s="48" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F63" s="48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G63" s="47" t="n">
         <v>194</v>
@@ -7338,16 +7326,16 @@
         <v>59</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D64" s="48" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E64" s="48" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F64" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G64" s="47" t="n">
         <v>192</v>
@@ -7403,16 +7391,16 @@
         <v>60</v>
       </c>
       <c r="C65" s="48" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D65" s="48" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E65" s="48" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F65" s="48" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G65" s="47" t="n">
         <v>194</v>
@@ -7468,16 +7456,16 @@
         <v>61</v>
       </c>
       <c r="C66" s="48" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D66" s="48" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E66" s="48" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F66" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G66" s="47" t="n">
         <v>170.5</v>
@@ -7533,16 +7521,16 @@
         <v>62</v>
       </c>
       <c r="C67" s="48" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D67" s="48" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E67" s="48" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F67" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G67" s="47" t="n">
         <v>176</v>
@@ -7598,16 +7586,16 @@
         <v>63</v>
       </c>
       <c r="C68" s="48" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D68" s="48" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E68" s="48" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F68" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G68" s="47" t="n">
         <v>190.6</v>
@@ -7663,16 +7651,16 @@
         <v>64</v>
       </c>
       <c r="C69" s="48" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D69" s="48" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F69" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G69" s="47" t="n">
         <v>190.6</v>
@@ -7728,16 +7716,16 @@
         <v>65</v>
       </c>
       <c r="C70" s="48" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D70" s="48" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E70" s="48" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F70" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G70" s="47" t="n">
         <v>190.6</v>
@@ -7793,16 +7781,16 @@
         <v>66</v>
       </c>
       <c r="C71" s="48" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D71" s="48" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E71" s="48" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F71" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G71" s="47" t="n">
         <v>191.25</v>
@@ -7858,16 +7846,16 @@
         <v>67</v>
       </c>
       <c r="C72" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D72" s="48" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E72" s="48" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F72" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G72" s="47" t="n">
         <v>190.6</v>
@@ -7923,16 +7911,16 @@
         <v>68</v>
       </c>
       <c r="C73" s="48" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D73" s="48" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E73" s="48" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F73" s="48" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G73" s="47" t="n">
         <v>194</v>
@@ -7988,16 +7976,16 @@
         <v>69</v>
       </c>
       <c r="C74" s="48" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D74" s="48" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E74" s="48" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F74" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G74" s="47" t="n">
         <v>192</v>
@@ -8053,16 +8041,16 @@
         <v>70</v>
       </c>
       <c r="C75" s="48" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D75" s="48" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E75" s="48" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F75" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G75" s="47" t="n">
         <v>112</v>
@@ -8118,16 +8106,16 @@
         <v>71</v>
       </c>
       <c r="C76" s="48" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D76" s="48" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E76" s="48" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F76" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G76" s="47" t="n">
         <v>190.6</v>
@@ -8183,16 +8171,16 @@
         <v>72</v>
       </c>
       <c r="C77" s="48" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D77" s="48" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E77" s="48" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F77" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G77" s="47" t="n">
         <v>194</v>
@@ -8248,16 +8236,16 @@
         <v>73</v>
       </c>
       <c r="C78" s="48" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D78" s="48" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E78" s="48" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F78" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G78" s="47" t="n">
         <v>114</v>
@@ -8313,16 +8301,16 @@
         <v>74</v>
       </c>
       <c r="C79" s="48" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D79" s="48" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E79" s="48" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F79" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G79" s="47" t="n">
         <v>194</v>
@@ -8378,16 +8366,16 @@
         <v>75</v>
       </c>
       <c r="C80" s="48" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D80" s="48" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E80" s="48" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F80" s="48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G80" s="47" t="n">
         <v>124</v>
@@ -8443,16 +8431,16 @@
         <v>76</v>
       </c>
       <c r="C81" s="48" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D81" s="48" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E81" s="48" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F81" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G81" s="47" t="n">
         <v>194</v>
@@ -8508,16 +8496,16 @@
         <v>77</v>
       </c>
       <c r="C82" s="48" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D82" s="48" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E82" s="48" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F82" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G82" s="47" t="n">
         <v>191.25</v>
@@ -8573,16 +8561,16 @@
         <v>78</v>
       </c>
       <c r="C83" s="48" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D83" s="48" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E83" s="48" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F83" s="48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G83" s="47" t="n">
         <v>141</v>
@@ -8638,16 +8626,16 @@
         <v>79</v>
       </c>
       <c r="C84" s="48" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D84" s="48" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E84" s="48" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F84" s="48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G84" s="47" t="n">
         <v>97</v>
@@ -8703,16 +8691,16 @@
         <v>80</v>
       </c>
       <c r="C85" s="48" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D85" s="48" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E85" s="48" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F85" s="48" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G85" s="47" t="n">
         <v>194</v>
@@ -8768,16 +8756,16 @@
         <v>81</v>
       </c>
       <c r="C86" s="48" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D86" s="48" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E86" s="48" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F86" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G86" s="47" t="n">
         <v>191.25</v>
@@ -8833,16 +8821,16 @@
         <v>82</v>
       </c>
       <c r="C87" s="48" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D87" s="48" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E87" s="48" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F87" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G87" s="47" t="n">
         <v>194</v>
@@ -8898,16 +8886,16 @@
         <v>83</v>
       </c>
       <c r="C88" s="48" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D88" s="48" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E88" s="48" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F88" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G88" s="47" t="n">
         <v>0</v>
@@ -8963,16 +8951,16 @@
         <v>84</v>
       </c>
       <c r="C89" s="48" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D89" s="48" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E89" s="48" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F89" s="48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G89" s="47" t="n">
         <v>0</v>
@@ -9028,16 +9016,16 @@
         <v>85</v>
       </c>
       <c r="C90" s="48" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D90" s="48" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E90" s="48" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F90" s="48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G90" s="47" t="n">
         <v>0</v>
@@ -9093,16 +9081,16 @@
         <v>86</v>
       </c>
       <c r="C91" s="48" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D91" s="48" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E91" s="48" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F91" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G91" s="47" t="n">
         <v>194</v>
@@ -9158,16 +9146,16 @@
         <v>87</v>
       </c>
       <c r="C92" s="48" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D92" s="48" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E92" s="48" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F92" s="48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G92" s="47" t="n">
         <v>0</v>
@@ -9223,16 +9211,16 @@
         <v>88</v>
       </c>
       <c r="C93" s="48" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D93" s="48" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E93" s="48" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F93" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G93" s="47" t="n">
         <v>80.5</v>
@@ -9288,16 +9276,16 @@
         <v>89</v>
       </c>
       <c r="C94" s="48" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D94" s="48" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E94" s="48" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F94" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G94" s="47" t="n">
         <v>144</v>
@@ -9353,16 +9341,16 @@
         <v>90</v>
       </c>
       <c r="C95" s="48" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D95" s="48" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E95" s="48" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F95" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G95" s="47" t="n">
         <v>192</v>
@@ -9418,16 +9406,16 @@
         <v>91</v>
       </c>
       <c r="C96" s="48" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D96" s="48" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E96" s="48" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F96" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G96" s="47" t="n">
         <v>168</v>
@@ -9483,16 +9471,16 @@
         <v>92</v>
       </c>
       <c r="C97" s="48" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D97" s="48" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E97" s="48" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F97" s="48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G97" s="47" t="n">
         <v>123</v>
@@ -9548,16 +9536,16 @@
         <v>93</v>
       </c>
       <c r="C98" s="48" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D98" s="48" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E98" s="48" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F98" s="48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G98" s="47" t="n">
         <v>194</v>
@@ -9613,16 +9601,16 @@
         <v>94</v>
       </c>
       <c r="C99" s="48" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D99" s="48" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E99" s="48" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F99" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G99" s="47" t="n">
         <v>194</v>
@@ -9678,16 +9666,16 @@
         <v>95</v>
       </c>
       <c r="C100" s="48" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D100" s="48" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E100" s="48" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F100" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G100" s="47" t="n">
         <v>194</v>
@@ -9743,16 +9731,16 @@
         <v>96</v>
       </c>
       <c r="C101" s="48" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D101" s="48" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E101" s="48" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F101" s="48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G101" s="47" t="n">
         <v>0</v>
@@ -9808,16 +9796,16 @@
         <v>97</v>
       </c>
       <c r="C102" s="48" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D102" s="48" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E102" s="48" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F102" s="48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G102" s="47" t="n">
         <v>0</v>
@@ -9873,16 +9861,16 @@
         <v>98</v>
       </c>
       <c r="C103" s="48" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D103" s="48" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E103" s="48" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F103" s="48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G103" s="47" t="n">
         <v>0</v>
@@ -9938,16 +9926,16 @@
         <v>99</v>
       </c>
       <c r="C104" s="48" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D104" s="48" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E104" s="48" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F104" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G104" s="47" t="n">
         <v>168</v>
@@ -10003,16 +9991,16 @@
         <v>100</v>
       </c>
       <c r="C105" s="48" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D105" s="48" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E105" s="48" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F105" s="48" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G105" s="47" t="n">
         <v>123</v>
@@ -10068,16 +10056,16 @@
         <v>101</v>
       </c>
       <c r="C106" s="48" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D106" s="48" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E106" s="48" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F106" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G106" s="47" t="n">
         <v>150</v>
@@ -10133,16 +10121,16 @@
         <v>102</v>
       </c>
       <c r="C107" s="48" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D107" s="48" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E107" s="48" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F107" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G107" s="47" t="n">
         <v>150</v>
@@ -10198,16 +10186,16 @@
         <v>103</v>
       </c>
       <c r="C108" s="48" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D108" s="48" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E108" s="48" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F108" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G108" s="47" t="n">
         <v>194</v>
@@ -10263,16 +10251,16 @@
         <v>104</v>
       </c>
       <c r="C109" s="48" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D109" s="48" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E109" s="48" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F109" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G109" s="47" t="n">
         <v>194</v>
@@ -10328,16 +10316,16 @@
         <v>105</v>
       </c>
       <c r="C110" s="48" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D110" s="48" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E110" s="48" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F110" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G110" s="47" t="n">
         <v>194</v>
@@ -10393,16 +10381,16 @@
         <v>106</v>
       </c>
       <c r="C111" s="48" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D111" s="48" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E111" s="48" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F111" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G111" s="47" t="n">
         <v>191.25</v>
@@ -10458,16 +10446,16 @@
         <v>107</v>
       </c>
       <c r="C112" s="48" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D112" s="48" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E112" s="48" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F112" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G112" s="47" t="n">
         <v>194</v>
@@ -10523,16 +10511,16 @@
         <v>108</v>
       </c>
       <c r="C113" s="48" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D113" s="48" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E113" s="48" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F113" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G113" s="47" t="n">
         <v>194</v>
@@ -10588,16 +10576,16 @@
         <v>109</v>
       </c>
       <c r="C114" s="48" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D114" s="48" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E114" s="48" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F114" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G114" s="47" t="n">
         <v>194</v>
@@ -10653,16 +10641,16 @@
         <v>110</v>
       </c>
       <c r="C115" s="48" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D115" s="48" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E115" s="48" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F115" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G115" s="47" t="n">
         <v>194</v>
@@ -10718,16 +10706,16 @@
         <v>111</v>
       </c>
       <c r="C116" s="48" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D116" s="48" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E116" s="48" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F116" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G116" s="47" t="n">
         <v>194</v>
@@ -10783,16 +10771,16 @@
         <v>112</v>
       </c>
       <c r="C117" s="48" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D117" s="48" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E117" s="48" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F117" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G117" s="47" t="n">
         <v>194</v>
@@ -10848,16 +10836,16 @@
         <v>113</v>
       </c>
       <c r="C118" s="48" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D118" s="48" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E118" s="48" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F118" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G118" s="47" t="n">
         <v>191.25</v>
@@ -10913,16 +10901,16 @@
         <v>114</v>
       </c>
       <c r="C119" s="48" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D119" s="48" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E119" s="48" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F119" s="48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G119" s="47" t="n">
         <v>194</v>
@@ -10978,16 +10966,16 @@
         <v>115</v>
       </c>
       <c r="C120" s="48" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D120" s="48" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E120" s="48" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F120" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G120" s="47" t="n">
         <v>194</v>
@@ -11043,16 +11031,16 @@
         <v>116</v>
       </c>
       <c r="C121" s="48" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D121" s="48" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E121" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F121" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G121" s="47" t="n">
         <v>194</v>
@@ -11108,16 +11096,16 @@
         <v>117</v>
       </c>
       <c r="C122" s="48" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D122" s="48" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E122" s="48" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F122" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G122" s="47" t="n">
         <v>194</v>
@@ -11173,16 +11161,16 @@
         <v>118</v>
       </c>
       <c r="C123" s="48" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D123" s="48" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E123" s="48" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F123" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G123" s="47" t="n">
         <v>97</v>
@@ -11238,16 +11226,16 @@
         <v>119</v>
       </c>
       <c r="C124" s="48" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D124" s="48" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E124" s="48" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F124" s="48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G124" s="47" t="n">
         <v>53</v>
@@ -11303,16 +11291,16 @@
         <v>120</v>
       </c>
       <c r="C125" s="48" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D125" s="48" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E125" s="48" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F125" s="48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G125" s="47" t="n">
         <v>194</v>
@@ -11368,16 +11356,16 @@
         <v>121</v>
       </c>
       <c r="C126" s="48" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D126" s="48" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E126" s="48" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F126" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G126" s="47" t="n">
         <v>191.25</v>
@@ -11433,16 +11421,16 @@
         <v>122</v>
       </c>
       <c r="C127" s="48" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D127" s="48" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E127" s="48" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F127" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G127" s="47" t="n">
         <v>191.25</v>
@@ -11498,16 +11486,16 @@
         <v>123</v>
       </c>
       <c r="C128" s="48" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D128" s="48" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E128" s="48" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F128" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G128" s="47" t="n">
         <v>191.25</v>
@@ -11563,16 +11551,16 @@
         <v>124</v>
       </c>
       <c r="C129" s="48" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D129" s="48" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E129" s="48" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F129" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G129" s="47" t="n">
         <v>190.6</v>
@@ -11628,16 +11616,16 @@
         <v>125</v>
       </c>
       <c r="C130" s="48" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D130" s="48" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E130" s="48" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F130" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G130" s="47" t="n">
         <v>190.6</v>
@@ -11693,16 +11681,16 @@
         <v>126</v>
       </c>
       <c r="C131" s="48" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D131" s="48" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E131" s="48" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F131" s="48" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G131" s="47" t="n">
         <v>80</v>
@@ -11758,16 +11746,16 @@
         <v>127</v>
       </c>
       <c r="C132" s="48" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D132" s="48" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E132" s="48" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F132" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G132" s="47" t="n">
         <v>140.25</v>
@@ -11823,16 +11811,16 @@
         <v>128</v>
       </c>
       <c r="C133" s="48" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D133" s="48" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E133" s="48" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F133" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G133" s="47" t="n">
         <v>140.25</v>
@@ -11888,16 +11876,16 @@
         <v>129</v>
       </c>
       <c r="C134" s="48" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D134" s="48" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E134" s="48" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F134" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G134" s="47" t="n">
         <v>178.5</v>
@@ -11953,16 +11941,16 @@
         <v>130</v>
       </c>
       <c r="C135" s="48" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D135" s="48" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E135" s="48" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F135" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G135" s="47" t="n">
         <v>204</v>
@@ -12018,16 +12006,16 @@
         <v>131</v>
       </c>
       <c r="C136" s="48" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D136" s="48" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E136" s="48" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F136" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G136" s="47" t="n">
         <v>200</v>
@@ -12083,16 +12071,16 @@
         <v>132</v>
       </c>
       <c r="C137" s="48" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D137" s="48" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E137" s="48" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F137" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G137" s="47" t="n">
         <v>140.25</v>
@@ -12148,16 +12136,16 @@
         <v>133</v>
       </c>
       <c r="C138" s="48" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D138" s="48" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E138" s="48" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F138" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G138" s="47" t="n">
         <v>182.5</v>
@@ -12213,16 +12201,16 @@
         <v>134</v>
       </c>
       <c r="C139" s="48" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D139" s="48" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E139" s="48" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F139" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G139" s="47" t="n">
         <v>191.25</v>
@@ -12278,16 +12266,16 @@
         <v>135</v>
       </c>
       <c r="C140" s="48" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D140" s="48" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E140" s="48" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F140" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G140" s="47" t="n">
         <v>140.25</v>
@@ -12343,16 +12331,16 @@
         <v>136</v>
       </c>
       <c r="C141" s="48" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D141" s="48" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E141" s="48" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F141" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G141" s="47" t="n">
         <v>191.25</v>
@@ -12408,16 +12396,16 @@
         <v>137</v>
       </c>
       <c r="C142" s="48" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D142" s="48" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E142" s="48" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F142" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G142" s="47" t="n">
         <v>191.25</v>
@@ -12473,16 +12461,16 @@
         <v>138</v>
       </c>
       <c r="C143" s="48" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D143" s="48" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E143" s="48" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F143" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G143" s="47" t="n">
         <v>182.5</v>
@@ -12538,16 +12526,16 @@
         <v>139</v>
       </c>
       <c r="C144" s="48" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D144" s="48" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E144" s="48" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F144" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G144" s="47" t="n">
         <v>191.25</v>
@@ -12603,16 +12591,16 @@
         <v>140</v>
       </c>
       <c r="C145" s="48" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D145" s="48" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E145" s="48" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F145" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G145" s="47" t="n">
         <v>191.25</v>
@@ -12668,16 +12656,16 @@
         <v>141</v>
       </c>
       <c r="C146" s="48" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D146" s="48" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E146" s="48" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F146" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G146" s="47" t="n">
         <v>200</v>
@@ -12733,16 +12721,16 @@
         <v>142</v>
       </c>
       <c r="C147" s="48" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D147" s="48" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E147" s="48" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F147" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G147" s="47" t="n">
         <v>191.25</v>
@@ -12798,16 +12786,16 @@
         <v>143</v>
       </c>
       <c r="C148" s="48" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D148" s="48" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E148" s="48" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F148" s="48" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G148" s="47" t="n">
         <v>150</v>
@@ -12863,16 +12851,16 @@
         <v>144</v>
       </c>
       <c r="C149" s="48" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D149" s="48" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E149" s="48" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F149" s="48" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G149" s="47" t="n">
         <v>149</v>
@@ -12928,16 +12916,16 @@
         <v>145</v>
       </c>
       <c r="C150" s="48" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D150" s="48" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E150" s="48" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F150" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G150" s="47" t="n">
         <v>191.25</v>
@@ -12993,16 +12981,16 @@
         <v>146</v>
       </c>
       <c r="C151" s="48" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D151" s="48" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E151" s="48" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F151" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G151" s="47" t="n">
         <v>182.5</v>
@@ -13058,16 +13046,16 @@
         <v>147</v>
       </c>
       <c r="C152" s="48" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D152" s="48" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E152" s="48" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F152" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G152" s="47" t="n">
         <v>194</v>
@@ -13123,16 +13111,16 @@
         <v>148</v>
       </c>
       <c r="C153" s="48" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D153" s="48" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E153" s="48" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F153" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G153" s="47" t="n">
         <v>0</v>
@@ -13188,16 +13176,16 @@
         <v>149</v>
       </c>
       <c r="C154" s="48" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D154" s="48" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E154" s="48" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F154" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G154" s="47" t="n">
         <v>89.25</v>
@@ -13253,16 +13241,16 @@
         <v>150</v>
       </c>
       <c r="C155" s="48" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D155" s="48" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E155" s="48" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F155" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G155" s="47" t="n">
         <v>140.25</v>
@@ -13318,16 +13306,16 @@
         <v>151</v>
       </c>
       <c r="C156" s="48" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D156" s="48" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E156" s="48" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F156" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G156" s="47" t="n">
         <v>153</v>
@@ -13383,16 +13371,16 @@
         <v>152</v>
       </c>
       <c r="C157" s="48" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D157" s="48" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E157" s="48" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F157" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G157" s="47" t="n">
         <v>191.25</v>
@@ -13448,16 +13436,16 @@
         <v>153</v>
       </c>
       <c r="C158" s="48" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D158" s="48" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E158" s="48" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F158" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G158" s="47" t="n">
         <v>191.25</v>
@@ -13513,16 +13501,16 @@
         <v>154</v>
       </c>
       <c r="C159" s="48" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D159" s="48" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E159" s="48" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F159" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G159" s="47" t="n">
         <v>191.25</v>
@@ -13578,16 +13566,16 @@
         <v>155</v>
       </c>
       <c r="C160" s="48" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D160" s="48" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E160" s="48" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F160" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G160" s="47" t="n">
         <v>191.25</v>
@@ -13643,16 +13631,16 @@
         <v>156</v>
       </c>
       <c r="C161" s="48" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D161" s="48" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E161" s="48" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F161" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G161" s="47" t="n">
         <v>191.25</v>
@@ -13708,16 +13696,16 @@
         <v>157</v>
       </c>
       <c r="C162" s="48" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D162" s="48" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E162" s="48" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F162" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G162" s="47" t="n">
         <v>191.25</v>
@@ -13773,16 +13761,16 @@
         <v>158</v>
       </c>
       <c r="C163" s="48" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D163" s="48" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E163" s="48" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F163" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G163" s="47" t="n">
         <v>191.25</v>
@@ -13838,16 +13826,16 @@
         <v>159</v>
       </c>
       <c r="C164" s="48" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D164" s="48" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E164" s="48" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F164" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G164" s="47" t="n">
         <v>182.5</v>
@@ -13903,16 +13891,16 @@
         <v>160</v>
       </c>
       <c r="C165" s="48" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D165" s="48" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E165" s="48" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F165" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G165" s="47" t="n">
         <v>191.25</v>
@@ -13968,16 +13956,16 @@
         <v>161</v>
       </c>
       <c r="C166" s="48" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D166" s="48" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E166" s="48" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F166" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G166" s="47" t="n">
         <v>123.25</v>
@@ -14033,16 +14021,16 @@
         <v>162</v>
       </c>
       <c r="C167" s="48" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D167" s="48" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E167" s="48" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F167" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G167" s="47" t="n">
         <v>153</v>
@@ -14098,16 +14086,16 @@
         <v>163</v>
       </c>
       <c r="C168" s="48" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D168" s="48" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E168" s="48" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F168" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G168" s="47" t="n">
         <v>127.5</v>
@@ -14163,16 +14151,16 @@
         <v>164</v>
       </c>
       <c r="C169" s="48" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D169" s="48" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E169" s="48" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F169" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G169" s="47" t="n">
         <v>191.25</v>
@@ -14228,16 +14216,16 @@
         <v>165</v>
       </c>
       <c r="C170" s="48" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D170" s="48" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E170" s="48" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F170" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G170" s="47" t="n">
         <v>140.25</v>
@@ -14293,16 +14281,16 @@
         <v>166</v>
       </c>
       <c r="C171" s="48" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D171" s="48" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E171" s="48" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F171" s="48" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G171" s="47" t="n">
         <v>192</v>
@@ -14358,16 +14346,16 @@
         <v>167</v>
       </c>
       <c r="C172" s="48" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D172" s="48" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E172" s="48" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F172" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G172" s="47" t="n">
         <v>127.5</v>
@@ -14423,16 +14411,16 @@
         <v>168</v>
       </c>
       <c r="C173" s="48" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D173" s="48" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E173" s="48" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F173" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G173" s="47" t="n">
         <v>190.6</v>
@@ -14488,16 +14476,16 @@
         <v>169</v>
       </c>
       <c r="C174" s="48" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D174" s="48" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E174" s="48" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F174" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G174" s="47" t="n">
         <v>204</v>
@@ -14553,16 +14541,16 @@
         <v>170</v>
       </c>
       <c r="C175" s="48" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D175" s="48" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E175" s="48" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F175" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G175" s="47" t="n">
         <v>182.5</v>
@@ -14618,16 +14606,16 @@
         <v>171</v>
       </c>
       <c r="C176" s="48" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D176" s="48" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E176" s="48" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F176" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G176" s="47" t="n">
         <v>191.25</v>
@@ -14683,16 +14671,16 @@
         <v>172</v>
       </c>
       <c r="C177" s="48" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D177" s="48" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E177" s="48" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F177" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G177" s="47" t="n">
         <v>178.5</v>
@@ -14748,16 +14736,16 @@
         <v>173</v>
       </c>
       <c r="C178" s="48" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D178" s="48" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E178" s="48" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F178" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G178" s="47" t="n">
         <v>191.25</v>
@@ -14813,16 +14801,16 @@
         <v>174</v>
       </c>
       <c r="C179" s="48" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D179" s="48" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E179" s="48" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F179" s="48" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G179" s="47" t="n">
         <v>123</v>
@@ -14878,16 +14866,16 @@
         <v>175</v>
       </c>
       <c r="C180" s="48" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D180" s="48" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E180" s="48" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F180" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G180" s="47" t="n">
         <v>193</v>
@@ -14943,16 +14931,16 @@
         <v>176</v>
       </c>
       <c r="C181" s="48" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D181" s="48" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E181" s="48" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F181" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G181" s="47" t="n">
         <v>176</v>
@@ -15008,16 +14996,16 @@
         <v>177</v>
       </c>
       <c r="C182" s="48" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D182" s="48" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E182" s="48" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F182" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G182" s="47" t="n">
         <v>140.25</v>
@@ -15073,16 +15061,16 @@
         <v>178</v>
       </c>
       <c r="C183" s="48" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D183" s="48" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E183" s="48" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F183" s="48" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G183" s="47" t="n">
         <v>194</v>
@@ -15138,16 +15126,16 @@
         <v>179</v>
       </c>
       <c r="C184" s="48" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D184" s="48" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E184" s="48" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F184" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G184" s="47" t="n">
         <v>191.25</v>
@@ -15203,16 +15191,16 @@
         <v>180</v>
       </c>
       <c r="C185" s="48" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D185" s="48" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E185" s="48" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F185" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G185" s="47" t="n">
         <v>89.25</v>
@@ -15268,16 +15256,16 @@
         <v>181</v>
       </c>
       <c r="C186" s="48" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D186" s="48" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E186" s="48" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F186" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G186" s="47" t="n">
         <v>191.25</v>
@@ -15333,16 +15321,16 @@
         <v>182</v>
       </c>
       <c r="C187" s="48" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D187" s="48" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E187" s="48" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F187" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G187" s="47" t="n">
         <v>0</v>
@@ -15398,16 +15386,16 @@
         <v>183</v>
       </c>
       <c r="C188" s="48" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D188" s="48" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E188" s="48" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F188" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G188" s="47" t="n">
         <v>191.25</v>
@@ -15463,16 +15451,16 @@
         <v>184</v>
       </c>
       <c r="C189" s="48" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D189" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E189" s="48" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F189" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G189" s="47" t="n">
         <v>89.25</v>
@@ -15528,16 +15516,16 @@
         <v>185</v>
       </c>
       <c r="C190" s="48" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D190" s="48" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E190" s="48" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F190" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G190" s="47" t="n">
         <v>191.25</v>
@@ -15593,16 +15581,16 @@
         <v>186</v>
       </c>
       <c r="C191" s="48" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D191" s="48" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E191" s="48" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F191" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G191" s="47" t="n">
         <v>191.25</v>
@@ -15658,16 +15646,16 @@
         <v>187</v>
       </c>
       <c r="C192" s="48" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D192" s="48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E192" s="48" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F192" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G192" s="47" t="n">
         <v>191.25</v>
@@ -15723,16 +15711,16 @@
         <v>188</v>
       </c>
       <c r="C193" s="48" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D193" s="48" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E193" s="48" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F193" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G193" s="47" t="n">
         <v>191.25</v>
@@ -15788,16 +15776,16 @@
         <v>189</v>
       </c>
       <c r="C194" s="48" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D194" s="48" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E194" s="48" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F194" s="48" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G194" s="47" t="n">
         <v>194</v>
@@ -15853,16 +15841,16 @@
         <v>190</v>
       </c>
       <c r="C195" s="48" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D195" s="48" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E195" s="48" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F195" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G195" s="47" t="n">
         <v>0</v>
@@ -15918,16 +15906,16 @@
         <v>191</v>
       </c>
       <c r="C196" s="48" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D196" s="48" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E196" s="48" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F196" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G196" s="47" t="n">
         <v>0</v>
@@ -15983,16 +15971,16 @@
         <v>192</v>
       </c>
       <c r="C197" s="48" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D197" s="48" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E197" s="48" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F197" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G197" s="47" t="n">
         <v>0</v>
@@ -16048,16 +16036,16 @@
         <v>193</v>
       </c>
       <c r="C198" s="48" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D198" s="48" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E198" s="48" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F198" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G198" s="47" t="n">
         <v>200</v>
@@ -16113,16 +16101,16 @@
         <v>194</v>
       </c>
       <c r="C199" s="48" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D199" s="48" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E199" s="48" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F199" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G199" s="47" t="n">
         <v>89.25</v>
@@ -16178,16 +16166,16 @@
         <v>195</v>
       </c>
       <c r="C200" s="48" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D200" s="48" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E200" s="48" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="F200" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G200" s="47" t="n">
         <v>102</v>
@@ -16243,16 +16231,16 @@
         <v>196</v>
       </c>
       <c r="C201" s="48" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D201" s="48" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E201" s="48" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F201" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G201" s="47" t="n">
         <v>0</v>
@@ -16308,16 +16296,16 @@
         <v>197</v>
       </c>
       <c r="C202" s="48" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D202" s="48" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E202" s="48" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="F202" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G202" s="47" t="n">
         <v>195.25</v>
@@ -16373,16 +16361,16 @@
         <v>198</v>
       </c>
       <c r="C203" s="48" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D203" s="48" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E203" s="48" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F203" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G203" s="47" t="n">
         <v>204</v>
@@ -16438,16 +16426,16 @@
         <v>199</v>
       </c>
       <c r="C204" s="48" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D204" s="48" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E204" s="48" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F204" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G204" s="47" t="n">
         <v>204</v>
@@ -16503,16 +16491,16 @@
         <v>200</v>
       </c>
       <c r="C205" s="48" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D205" s="48" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E205" s="48" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F205" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G205" s="47" t="n">
         <v>89.25</v>
@@ -16568,16 +16556,16 @@
         <v>201</v>
       </c>
       <c r="C206" s="48" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D206" s="48" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E206" s="48" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="F206" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G206" s="47" t="n">
         <v>178.5</v>
@@ -16633,16 +16621,16 @@
         <v>202</v>
       </c>
       <c r="C207" s="48" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D207" s="48" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E207" s="48" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F207" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G207" s="47" t="n">
         <v>178.5</v>
@@ -16698,16 +16686,16 @@
         <v>203</v>
       </c>
       <c r="C208" s="48" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D208" s="48" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E208" s="48" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F208" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G208" s="47" t="n">
         <v>178.5</v>
@@ -16763,16 +16751,16 @@
         <v>204</v>
       </c>
       <c r="C209" s="48" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D209" s="48" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E209" s="48" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F209" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G209" s="47" t="n">
         <v>178.5</v>
@@ -16828,16 +16816,16 @@
         <v>205</v>
       </c>
       <c r="C210" s="48" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D210" s="48" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E210" s="48" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="F210" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G210" s="47" t="n">
         <v>152</v>
@@ -16893,16 +16881,16 @@
         <v>206</v>
       </c>
       <c r="C211" s="48" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D211" s="48" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E211" s="48" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F211" s="48" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G211" s="47" t="n">
         <v>194</v>
@@ -16958,16 +16946,16 @@
         <v>207</v>
       </c>
       <c r="C212" s="48" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D212" s="48" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E212" s="48" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="F212" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G212" s="47" t="n">
         <v>192</v>
@@ -17023,16 +17011,16 @@
         <v>208</v>
       </c>
       <c r="C213" s="48" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D213" s="48" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E213" s="48" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F213" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G213" s="47" t="n">
         <v>204</v>
@@ -17088,16 +17076,16 @@
         <v>209</v>
       </c>
       <c r="C214" s="48" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D214" s="48" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E214" s="48" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F214" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G214" s="47" t="n">
         <v>102</v>
@@ -17153,16 +17141,16 @@
         <v>210</v>
       </c>
       <c r="C215" s="48" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D215" s="48" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E215" s="48" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F215" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G215" s="47" t="n">
         <v>124</v>
@@ -17218,16 +17206,16 @@
         <v>211</v>
       </c>
       <c r="C216" s="48" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D216" s="48" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E216" s="48" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F216" s="48" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G216" s="47" t="n">
         <v>97</v>
@@ -17283,16 +17271,16 @@
         <v>212</v>
       </c>
       <c r="C217" s="48" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D217" s="48" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E217" s="48" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F217" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G217" s="47" t="n">
         <v>192</v>
@@ -17348,16 +17336,16 @@
         <v>213</v>
       </c>
       <c r="C218" s="48" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D218" s="48" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E218" s="48" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F218" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G218" s="47" t="n">
         <v>0</v>
@@ -17413,16 +17401,16 @@
         <v>214</v>
       </c>
       <c r="C219" s="48" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D219" s="48" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E219" s="48" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F219" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G219" s="47" t="n">
         <v>157</v>
@@ -17478,16 +17466,16 @@
         <v>215</v>
       </c>
       <c r="C220" s="48" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D220" s="48" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E220" s="48" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F220" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G220" s="47" t="n">
         <v>191.25</v>
@@ -17543,16 +17531,16 @@
         <v>216</v>
       </c>
       <c r="C221" s="48" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D221" s="48" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E221" s="48" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F221" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G221" s="47" t="n">
         <v>153</v>
@@ -17608,16 +17596,16 @@
         <v>217</v>
       </c>
       <c r="C222" s="48" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D222" s="48" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E222" s="48" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F222" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G222" s="47" t="n">
         <v>200</v>
@@ -17673,16 +17661,16 @@
         <v>218</v>
       </c>
       <c r="C223" s="48" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D223" s="48" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E223" s="48" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F223" s="48" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G223" s="47" t="n">
         <v>132</v>
@@ -17738,16 +17726,16 @@
         <v>219</v>
       </c>
       <c r="C224" s="48" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D224" s="48" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E224" s="48" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="F224" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G224" s="47" t="n">
         <v>192</v>
@@ -17803,16 +17791,16 @@
         <v>220</v>
       </c>
       <c r="C225" s="48" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D225" s="48" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E225" s="48" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F225" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G225" s="47" t="n">
         <v>102</v>
@@ -17868,16 +17856,16 @@
         <v>221</v>
       </c>
       <c r="C226" s="48" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D226" s="48" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E226" s="48" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F226" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G226" s="47" t="n">
         <v>190.6</v>
@@ -17933,16 +17921,16 @@
         <v>222</v>
       </c>
       <c r="C227" s="48" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D227" s="48" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E227" s="48" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F227" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G227" s="47" t="n">
         <v>192</v>
@@ -17998,16 +17986,16 @@
         <v>223</v>
       </c>
       <c r="C228" s="48" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D228" s="48" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E228" s="48" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F228" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G228" s="47" t="n">
         <v>192</v>
@@ -18063,16 +18051,16 @@
         <v>224</v>
       </c>
       <c r="C229" s="48" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D229" s="48" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E229" s="48" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F229" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G229" s="47" t="n">
         <v>192</v>
@@ -18128,16 +18116,16 @@
         <v>225</v>
       </c>
       <c r="C230" s="48" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D230" s="48" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E230" s="48" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F230" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G230" s="47" t="n">
         <v>0</v>
@@ -18193,16 +18181,16 @@
         <v>226</v>
       </c>
       <c r="C231" s="48" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D231" s="48" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E231" s="48" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F231" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G231" s="47" t="n">
         <v>96</v>
@@ -18258,16 +18246,16 @@
         <v>227</v>
       </c>
       <c r="C232" s="48" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D232" s="48" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E232" s="48" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F232" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G232" s="47" t="n">
         <v>91.58</v>
@@ -18323,16 +18311,16 @@
         <v>228</v>
       </c>
       <c r="C233" s="48" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D233" s="48" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E233" s="48" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F233" s="48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G233" s="47" t="n">
         <v>192</v>
@@ -18388,16 +18376,16 @@
         <v>229</v>
       </c>
       <c r="C234" s="48" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D234" s="48" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E234" s="48" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F234" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G234" s="47" t="n">
         <v>192</v>
@@ -18453,16 +18441,16 @@
         <v>230</v>
       </c>
       <c r="C235" s="48" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D235" s="48" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E235" s="48" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F235" s="48" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G235" s="47" t="n">
         <v>194</v>
@@ -18518,16 +18506,16 @@
         <v>231</v>
       </c>
       <c r="C236" s="48" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D236" s="48" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E236" s="48" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="F236" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G236" s="47" t="n">
         <v>192</v>
@@ -18583,16 +18571,16 @@
         <v>232</v>
       </c>
       <c r="C237" s="48" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D237" s="48" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E237" s="48" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F237" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G237" s="47" t="n">
         <v>0</v>
@@ -18648,16 +18636,16 @@
         <v>233</v>
       </c>
       <c r="C238" s="48" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D238" s="48" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E238" s="48" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="F238" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G238" s="47" t="n">
         <v>112.75</v>
@@ -18713,16 +18701,16 @@
         <v>234</v>
       </c>
       <c r="C239" s="48" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D239" s="48" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="E239" s="48" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F239" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G239" s="47" t="n">
         <v>204</v>
@@ -18778,16 +18766,16 @@
         <v>235</v>
       </c>
       <c r="C240" s="48" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D240" s="48" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="E240" s="48" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="F240" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G240" s="47" t="n">
         <v>178.5</v>
@@ -18843,16 +18831,16 @@
         <v>236</v>
       </c>
       <c r="C241" s="48" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D241" s="48" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E241" s="48" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F241" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G241" s="47" t="n">
         <v>195.25</v>
@@ -18908,16 +18896,16 @@
         <v>237</v>
       </c>
       <c r="C242" s="48" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D242" s="48" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E242" s="48" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="F242" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G242" s="47" t="n">
         <v>204</v>
@@ -18973,16 +18961,16 @@
         <v>238</v>
       </c>
       <c r="C243" s="48" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D243" s="48" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E243" s="48" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F243" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G243" s="47" t="n">
         <v>204</v>
@@ -19038,16 +19026,16 @@
         <v>239</v>
       </c>
       <c r="C244" s="48" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D244" s="48" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E244" s="48" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="F244" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G244" s="47" t="n">
         <v>89.25</v>
@@ -19103,16 +19091,16 @@
         <v>240</v>
       </c>
       <c r="C245" s="48" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D245" s="48" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E245" s="48" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F245" s="48" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G245" s="47" t="n">
         <v>194</v>
@@ -19168,16 +19156,16 @@
         <v>241</v>
       </c>
       <c r="C246" s="48" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D246" s="48" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E246" s="48" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F246" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G246" s="47" t="n">
         <v>178.5</v>
@@ -19233,16 +19221,16 @@
         <v>242</v>
       </c>
       <c r="C247" s="48" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D247" s="48" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E247" s="48" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F247" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G247" s="47" t="n">
         <v>0</v>
@@ -19298,16 +19286,16 @@
         <v>243</v>
       </c>
       <c r="C248" s="48" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D248" s="48" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E248" s="48" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F248" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G248" s="47" t="n">
         <v>102</v>
@@ -19363,16 +19351,16 @@
         <v>244</v>
       </c>
       <c r="C249" s="48" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="D249" s="48" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E249" s="48" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F249" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G249" s="47" t="n">
         <v>178.5</v>
@@ -19428,16 +19416,16 @@
         <v>245</v>
       </c>
       <c r="C250" s="48" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D250" s="48" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="E250" s="48" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="F250" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G250" s="47" t="n">
         <v>194</v>
@@ -19493,16 +19481,16 @@
         <v>246</v>
       </c>
       <c r="C251" s="48" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D251" s="48" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E251" s="48" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="F251" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G251" s="47" t="n">
         <v>187.5</v>
@@ -19558,16 +19546,16 @@
         <v>247</v>
       </c>
       <c r="C252" s="48" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D252" s="48" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E252" s="48" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="F252" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G252" s="47" t="n">
         <v>168</v>
@@ -19623,16 +19611,16 @@
         <v>248</v>
       </c>
       <c r="C253" s="48" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="D253" s="48" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E253" s="48" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F253" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G253" s="47" t="n">
         <v>72</v>
@@ -19688,16 +19676,16 @@
         <v>249</v>
       </c>
       <c r="C254" s="48" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D254" s="48" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E254" s="48" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="F254" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G254" s="47" t="n">
         <v>191.25</v>
@@ -19753,16 +19741,16 @@
         <v>250</v>
       </c>
       <c r="C255" s="48" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D255" s="48" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E255" s="48" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F255" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G255" s="47" t="n">
         <v>153</v>
@@ -19818,16 +19806,16 @@
         <v>251</v>
       </c>
       <c r="C256" s="48" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D256" s="48" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="E256" s="48" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="F256" s="48" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G256" s="47" t="n">
         <v>194</v>
@@ -19883,16 +19871,16 @@
         <v>252</v>
       </c>
       <c r="C257" s="48" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D257" s="48" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E257" s="48" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F257" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G257" s="47" t="n">
         <v>168</v>
@@ -19948,16 +19936,16 @@
         <v>253</v>
       </c>
       <c r="C258" s="48" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D258" s="48" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="E258" s="48" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F258" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G258" s="47" t="n">
         <v>0</v>
@@ -20013,16 +20001,16 @@
         <v>254</v>
       </c>
       <c r="C259" s="48" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D259" s="48" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E259" s="48" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F259" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G259" s="47" t="n">
         <v>191.25</v>
@@ -20078,16 +20066,16 @@
         <v>255</v>
       </c>
       <c r="C260" s="48" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="D260" s="48" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E260" s="48" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F260" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G260" s="47" t="n">
         <v>184</v>
@@ -20143,16 +20131,16 @@
         <v>256</v>
       </c>
       <c r="C261" s="48" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="D261" s="48" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E261" s="48" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F261" s="48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G261" s="47" t="n">
         <v>192</v>
@@ -20208,16 +20196,16 @@
         <v>257</v>
       </c>
       <c r="C262" s="48" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D262" s="48" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="E262" s="48" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F262" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G262" s="47" t="n">
         <v>190.6</v>
@@ -20273,16 +20261,16 @@
         <v>258</v>
       </c>
       <c r="C263" s="48" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D263" s="48" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E263" s="48" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F263" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G263" s="47" t="n">
         <v>120</v>
@@ -20338,16 +20326,16 @@
         <v>259</v>
       </c>
       <c r="C264" s="48" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D264" s="48" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E264" s="48" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F264" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G264" s="47" t="n">
         <v>178.5</v>
@@ -20403,16 +20391,16 @@
         <v>260</v>
       </c>
       <c r="C265" s="48" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D265" s="48" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E265" s="48" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F265" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G265" s="47" t="n">
         <v>204</v>
@@ -20468,16 +20456,16 @@
         <v>261</v>
       </c>
       <c r="C266" s="48" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="D266" s="48" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E266" s="48" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="F266" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G266" s="47" t="n">
         <v>187.25</v>
@@ -20533,16 +20521,16 @@
         <v>262</v>
       </c>
       <c r="C267" s="48" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="D267" s="48" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E267" s="48" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F267" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G267" s="47" t="n">
         <v>194</v>
@@ -20598,16 +20586,16 @@
         <v>263</v>
       </c>
       <c r="C268" s="48" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D268" s="48" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E268" s="48" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F268" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G268" s="47" t="n">
         <v>204</v>
@@ -20663,16 +20651,16 @@
         <v>264</v>
       </c>
       <c r="C269" s="48" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D269" s="48" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="E269" s="48" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F269" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G269" s="47" t="n">
         <v>76.5</v>
@@ -20728,16 +20716,16 @@
         <v>265</v>
       </c>
       <c r="C270" s="48" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D270" s="48" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="E270" s="48" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F270" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G270" s="47" t="n">
         <v>200</v>
@@ -20793,16 +20781,16 @@
         <v>266</v>
       </c>
       <c r="C271" s="48" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D271" s="48" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="E271" s="48" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F271" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G271" s="47" t="n">
         <v>150.75</v>
